--- a/data/CS1/Market Data/CS1_market_data_2020.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D88A87-2AF0-420F-A564-819B11A27167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A27DDD2-84B2-44B5-8812-67E84309B96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27675" yWindow="3075" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2240,7 +2240,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.5</v>

--- a/data/CS1/Market Data/CS1_market_data_2020.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A27DDD2-84B2-44B5-8812-67E84309B96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3587B337-D326-42DB-95DF-5E0C100F3807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27675" yWindow="3075" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="2730" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2253,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D1" s="1">
         <v>0.5</v>

--- a/data/CS1/Market Data/CS1_market_data_2020.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3587B337-D326-42DB-95DF-5E0C100F3807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F1217D-5E2A-4F88-9630-9CCB5563BE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="2730" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27330" yWindow="3420" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS1/Market Data/CS1_market_data_2020.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F1217D-5E2A-4F88-9630-9CCB5563BE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D955C784-650A-4AB0-9566-B5D204343029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27330" yWindow="3420" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="2730" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS1/Market Data/CS1_market_data_2020.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2020.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D955C784-650A-4AB0-9566-B5D204343029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7627E9D-7EAE-42FF-9A5A-6B68102F43C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="2730" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Cp, Winter" sheetId="2" r:id="rId2"/>
-    <sheet name="Csr, Winter" sheetId="3" r:id="rId3"/>
-    <sheet name="Ctr_up, Winter" sheetId="4" r:id="rId4"/>
-    <sheet name="Ctr_down, Winter" sheetId="5" r:id="rId5"/>
-    <sheet name="Cp, Summer" sheetId="14" r:id="rId6"/>
-    <sheet name="Csr, Summer" sheetId="15" r:id="rId7"/>
-    <sheet name="Ctr_up, Summer" sheetId="16" r:id="rId8"/>
-    <sheet name="Ctr_down, Summer" sheetId="17" r:id="rId9"/>
+    <sheet name="Flex, Winter" sheetId="18" r:id="rId3"/>
+    <sheet name="Csr, Winter" sheetId="3" r:id="rId4"/>
+    <sheet name="Ctr_up, Winter" sheetId="4" r:id="rId5"/>
+    <sheet name="Ctr_down, Winter" sheetId="5" r:id="rId6"/>
+    <sheet name="Cp, Summer" sheetId="14" r:id="rId7"/>
+    <sheet name="Flex, Summer" sheetId="19" r:id="rId8"/>
+    <sheet name="Csr, Summer" sheetId="15" r:id="rId9"/>
+    <sheet name="Ctr_up, Summer" sheetId="16" r:id="rId10"/>
+    <sheet name="Ctr_down, Summer" sheetId="17" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Year</t>
   </si>
@@ -74,6 +76,9 @@
   </si>
   <si>
     <t>Growth factors (cumul.)</t>
+  </si>
+  <si>
+    <t>Flexibility</t>
   </si>
 </sst>
 </file>
@@ -146,24 +151,21 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Energy, Winter"/>
+      <sheetName val="Flexibility, Winter"/>
       <sheetName val="Secondary Reserve, Winter"/>
       <sheetName val="Tertiary Reserve Up, Winter"/>
       <sheetName val="Tertiary Reserve Down, Winter"/>
       <sheetName val="Energy, Summer"/>
+      <sheetName val="Flexibility, Summer"/>
       <sheetName val="Secondary Reserve, Summer"/>
       <sheetName val="Tertiary Reserve Up, Summer"/>
       <sheetName val="Tertiary Reserve Down, Summer"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.02</v>
+        <row r="1">
+          <cell r="B1">
+            <v>2020</v>
           </cell>
         </row>
         <row r="4">
@@ -173,6 +175,21 @@
         </row>
         <row r="5">
           <cell r="B5">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
             <v>0.02</v>
           </cell>
         </row>
@@ -404,1126 +421,1574 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>25.342275000000001</v>
+            <v>52.451999999999998</v>
           </cell>
           <cell r="C2">
-            <v>24.594854999999999</v>
+            <v>48.941999999999993</v>
           </cell>
           <cell r="D2">
-            <v>27.759217499999998</v>
+            <v>46.863</v>
           </cell>
           <cell r="E2">
-            <v>30.54975</v>
+            <v>43.947000000000003</v>
           </cell>
           <cell r="F2">
-            <v>32.125005000000002</v>
+            <v>45.258000000000003</v>
           </cell>
           <cell r="G2">
-            <v>29.361535</v>
+            <v>48.894000000000005</v>
           </cell>
           <cell r="H2">
-            <v>27.199200000000001</v>
+            <v>59.153999999999989</v>
           </cell>
           <cell r="I2">
-            <v>29.454137500000002</v>
+            <v>61.908000000000001</v>
           </cell>
           <cell r="J2">
-            <v>25.75685</v>
+            <v>65.099999999999994</v>
           </cell>
           <cell r="K2">
-            <v>23.352209999999999</v>
+            <v>64.60499999999999</v>
           </cell>
           <cell r="L2">
-            <v>22.9788</v>
+            <v>63.360000000000014</v>
           </cell>
           <cell r="M2">
-            <v>20.269462499999999</v>
+            <v>63.050999999999995</v>
           </cell>
           <cell r="N2">
-            <v>22.549799999999994</v>
+            <v>60.608999999999988</v>
           </cell>
           <cell r="O2">
-            <v>18.743400000000001</v>
+            <v>59.753999999999991</v>
           </cell>
           <cell r="P2">
-            <v>19.593999999999998</v>
+            <v>58.581000000000003</v>
           </cell>
           <cell r="Q2">
-            <v>16.172449999999998</v>
+            <v>58.697999999999993</v>
           </cell>
           <cell r="R2">
-            <v>12.758287500000002</v>
+            <v>59.603999999999992</v>
           </cell>
           <cell r="S2">
-            <v>14.871139999999999</v>
+            <v>62.55</v>
           </cell>
           <cell r="T2">
-            <v>10.08586</v>
+            <v>65.543999999999997</v>
           </cell>
           <cell r="U2">
-            <v>8.7737250000000007</v>
+            <v>66.048000000000002</v>
           </cell>
           <cell r="V2">
-            <v>9.8389550000000003</v>
+            <v>64.524000000000001</v>
           </cell>
           <cell r="W2">
-            <v>13.74175</v>
+            <v>60.471000000000004</v>
           </cell>
           <cell r="X2">
-            <v>16.117327500000002</v>
+            <v>54.578999999999994</v>
           </cell>
           <cell r="Y2">
-            <v>14.23521</v>
+            <v>51.227999999999994</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>20.34</v>
+            <v>52.451999999999998</v>
           </cell>
           <cell r="C3">
-            <v>21.39</v>
+            <v>48.941999999999993</v>
           </cell>
           <cell r="D3">
-            <v>29.287499999999998</v>
+            <v>46.863</v>
           </cell>
           <cell r="E3">
-            <v>33.202500000000001</v>
+            <v>43.947000000000003</v>
           </cell>
           <cell r="F3">
-            <v>36.134999999999998</v>
+            <v>45.258000000000003</v>
           </cell>
           <cell r="G3">
-            <v>35.917500000000004</v>
+            <v>48.894000000000005</v>
           </cell>
           <cell r="H3">
-            <v>35.67</v>
+            <v>59.153999999999989</v>
           </cell>
           <cell r="I3">
-            <v>37.387500000000003</v>
+            <v>61.908000000000001</v>
           </cell>
           <cell r="J3">
-            <v>34.799999999999997</v>
+            <v>65.099999999999994</v>
           </cell>
           <cell r="K3">
-            <v>30.075000000000003</v>
+            <v>64.60499999999999</v>
           </cell>
           <cell r="L3">
-            <v>30.93</v>
+            <v>63.360000000000014</v>
           </cell>
           <cell r="M3">
-            <v>25.297499999999999</v>
+            <v>63.050999999999995</v>
           </cell>
           <cell r="N3">
-            <v>28.83</v>
+            <v>60.608999999999988</v>
           </cell>
           <cell r="O3">
-            <v>21.509999999999998</v>
+            <v>59.753999999999991</v>
           </cell>
           <cell r="P3">
-            <v>22.65</v>
+            <v>58.581000000000003</v>
           </cell>
           <cell r="Q3">
-            <v>20.34</v>
+            <v>58.697999999999993</v>
           </cell>
           <cell r="R3">
-            <v>13.642500000000002</v>
+            <v>59.603999999999992</v>
           </cell>
           <cell r="S3">
-            <v>17.009999999999998</v>
+            <v>62.55</v>
           </cell>
           <cell r="T3">
-            <v>11.115</v>
+            <v>65.543999999999997</v>
           </cell>
           <cell r="U3">
-            <v>9.75</v>
+            <v>66.048000000000002</v>
           </cell>
           <cell r="V3">
-            <v>10.8825</v>
+            <v>64.524000000000001</v>
           </cell>
           <cell r="W3">
-            <v>12.78</v>
+            <v>60.471000000000004</v>
           </cell>
           <cell r="X3">
-            <v>13.657500000000001</v>
+            <v>54.578999999999994</v>
           </cell>
           <cell r="Y3">
-            <v>10.5</v>
+            <v>51.227999999999994</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>27.930999999999997</v>
+            <v>52.451999999999998</v>
           </cell>
           <cell r="C4">
-            <v>26.366999999999997</v>
+            <v>48.941999999999993</v>
           </cell>
           <cell r="D4">
-            <v>27.948</v>
+            <v>46.863</v>
           </cell>
           <cell r="E4">
-            <v>27.896999999999998</v>
+            <v>43.947000000000003</v>
           </cell>
           <cell r="F4">
-            <v>28.764000000000003</v>
+            <v>45.258000000000003</v>
           </cell>
           <cell r="G4">
-            <v>24.003999999999998</v>
+            <v>48.894000000000005</v>
           </cell>
           <cell r="H4">
-            <v>20.994999999999997</v>
+            <v>59.153999999999989</v>
           </cell>
           <cell r="I4">
-            <v>19.805</v>
+            <v>61.908000000000001</v>
           </cell>
           <cell r="J4">
-            <v>17.764999999999997</v>
+            <v>65.099999999999994</v>
           </cell>
           <cell r="K4">
-            <v>16.166999999999998</v>
+            <v>64.60499999999999</v>
           </cell>
           <cell r="L4">
-            <v>13.26</v>
+            <v>63.360000000000014</v>
           </cell>
           <cell r="M4">
-            <v>13.311</v>
+            <v>63.050999999999995</v>
           </cell>
           <cell r="N4">
-            <v>14.535</v>
+            <v>60.608999999999988</v>
           </cell>
           <cell r="O4">
-            <v>14.535</v>
+            <v>59.753999999999991</v>
           </cell>
           <cell r="P4">
-            <v>16.149999999999999</v>
+            <v>58.581000000000003</v>
           </cell>
           <cell r="Q4">
-            <v>12.664999999999999</v>
+            <v>58.697999999999993</v>
           </cell>
           <cell r="R4">
-            <v>10.658999999999999</v>
+            <v>59.603999999999992</v>
           </cell>
           <cell r="S4">
-            <v>11.866</v>
+            <v>62.55</v>
           </cell>
           <cell r="T4">
-            <v>8.8569999999999993</v>
+            <v>65.543999999999997</v>
           </cell>
           <cell r="U4">
-            <v>8.7210000000000001</v>
+            <v>66.048000000000002</v>
           </cell>
           <cell r="V4">
-            <v>9.1969999999999992</v>
+            <v>64.524000000000001</v>
           </cell>
           <cell r="W4">
-            <v>16.149999999999999</v>
+            <v>60.471000000000004</v>
           </cell>
           <cell r="X4">
-            <v>18.257999999999999</v>
+            <v>54.578999999999994</v>
           </cell>
           <cell r="Y4">
-            <v>18.257999999999999</v>
+            <v>51.227999999999994</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2">
-            <v>50.01</v>
+            <v>25.342275000000001</v>
           </cell>
           <cell r="C2">
-            <v>45</v>
+            <v>24.594854999999999</v>
           </cell>
           <cell r="D2">
-            <v>49</v>
+            <v>27.759217499999998</v>
           </cell>
           <cell r="E2">
-            <v>37.31</v>
+            <v>30.54975</v>
           </cell>
           <cell r="F2">
-            <v>37.31</v>
+            <v>32.125005000000002</v>
           </cell>
           <cell r="G2">
-            <v>48</v>
+            <v>29.361535</v>
           </cell>
           <cell r="H2">
-            <v>50.01</v>
+            <v>27.199200000000001</v>
           </cell>
           <cell r="I2">
-            <v>50.01</v>
+            <v>29.454137500000002</v>
           </cell>
           <cell r="J2">
-            <v>48</v>
+            <v>25.75685</v>
           </cell>
           <cell r="K2">
-            <v>46.88</v>
+            <v>23.352209999999999</v>
           </cell>
           <cell r="L2">
-            <v>47.88</v>
+            <v>22.9788</v>
           </cell>
           <cell r="M2">
-            <v>47.88</v>
+            <v>20.269462499999999</v>
           </cell>
           <cell r="N2">
-            <v>47.88</v>
+            <v>22.549799999999994</v>
           </cell>
           <cell r="O2">
-            <v>47.88</v>
+            <v>18.743400000000001</v>
           </cell>
           <cell r="P2">
-            <v>47.88</v>
+            <v>19.593999999999998</v>
           </cell>
           <cell r="Q2">
-            <v>47.88</v>
+            <v>16.172449999999998</v>
           </cell>
           <cell r="R2">
-            <v>47.88</v>
+            <v>12.758287500000002</v>
           </cell>
           <cell r="S2">
-            <v>47.88</v>
+            <v>14.871139999999999</v>
           </cell>
           <cell r="T2">
-            <v>47.88</v>
+            <v>10.08586</v>
           </cell>
           <cell r="U2">
-            <v>47.88</v>
+            <v>8.7737250000000007</v>
           </cell>
           <cell r="V2">
-            <v>47.88</v>
+            <v>9.8389550000000003</v>
           </cell>
           <cell r="W2">
-            <v>47.88</v>
+            <v>13.74175</v>
           </cell>
           <cell r="X2">
-            <v>47.88</v>
+            <v>16.117327500000002</v>
           </cell>
           <cell r="Y2">
-            <v>47.88</v>
+            <v>14.23521</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>47.67</v>
+            <v>20.34</v>
           </cell>
           <cell r="C3">
-            <v>32.44</v>
+            <v>21.39</v>
           </cell>
           <cell r="D3">
-            <v>32.44</v>
+            <v>29.287499999999998</v>
           </cell>
           <cell r="E3">
-            <v>32.44</v>
+            <v>33.202500000000001</v>
           </cell>
           <cell r="F3">
-            <v>32.44</v>
+            <v>36.134999999999998</v>
           </cell>
           <cell r="G3">
-            <v>32.44</v>
+            <v>35.917500000000004</v>
           </cell>
           <cell r="H3">
-            <v>32.44</v>
+            <v>35.67</v>
           </cell>
           <cell r="I3">
-            <v>32.44</v>
+            <v>37.387500000000003</v>
           </cell>
           <cell r="J3">
-            <v>47.67</v>
+            <v>34.799999999999997</v>
           </cell>
           <cell r="K3">
-            <v>36.44</v>
+            <v>30.075000000000003</v>
           </cell>
           <cell r="L3">
-            <v>37.44</v>
+            <v>30.93</v>
           </cell>
           <cell r="M3">
-            <v>37.44</v>
+            <v>25.297499999999999</v>
           </cell>
           <cell r="N3">
-            <v>37.44</v>
+            <v>28.83</v>
           </cell>
           <cell r="O3">
-            <v>37.44</v>
+            <v>21.509999999999998</v>
           </cell>
           <cell r="P3">
-            <v>37.44</v>
+            <v>22.65</v>
           </cell>
           <cell r="Q3">
-            <v>40.69</v>
+            <v>20.34</v>
           </cell>
           <cell r="R3">
-            <v>47.67</v>
+            <v>13.642500000000002</v>
           </cell>
           <cell r="S3">
-            <v>44.4</v>
+            <v>17.009999999999998</v>
           </cell>
           <cell r="T3">
-            <v>44.4</v>
+            <v>11.115</v>
           </cell>
           <cell r="U3">
-            <v>44.4</v>
+            <v>9.75</v>
           </cell>
           <cell r="V3">
-            <v>44.4</v>
+            <v>10.8825</v>
           </cell>
           <cell r="W3">
-            <v>47.67</v>
+            <v>12.78</v>
           </cell>
           <cell r="X3">
-            <v>47.67</v>
+            <v>13.657500000000001</v>
           </cell>
           <cell r="Y3">
-            <v>45</v>
+            <v>10.5</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>55</v>
+            <v>27.930999999999997</v>
           </cell>
           <cell r="C4">
-            <v>56.99</v>
+            <v>26.366999999999997</v>
           </cell>
           <cell r="D4">
-            <v>56.99</v>
+            <v>27.948</v>
           </cell>
           <cell r="E4">
-            <v>55</v>
+            <v>27.896999999999998</v>
           </cell>
           <cell r="F4">
-            <v>55</v>
+            <v>28.764000000000003</v>
           </cell>
           <cell r="G4">
-            <v>55</v>
+            <v>24.003999999999998</v>
           </cell>
           <cell r="H4">
-            <v>56.99</v>
+            <v>20.994999999999997</v>
           </cell>
           <cell r="I4">
-            <v>56.99</v>
+            <v>19.805</v>
           </cell>
           <cell r="J4">
-            <v>55</v>
+            <v>17.764999999999997</v>
           </cell>
           <cell r="K4">
-            <v>55</v>
+            <v>16.166999999999998</v>
           </cell>
           <cell r="L4">
-            <v>55</v>
+            <v>13.26</v>
           </cell>
           <cell r="M4">
-            <v>55</v>
+            <v>13.311</v>
           </cell>
           <cell r="N4">
-            <v>59.95</v>
+            <v>14.535</v>
           </cell>
           <cell r="O4">
-            <v>59.95</v>
+            <v>14.535</v>
           </cell>
           <cell r="P4">
-            <v>59.95</v>
+            <v>16.149999999999999</v>
           </cell>
           <cell r="Q4">
-            <v>59.95</v>
+            <v>12.664999999999999</v>
           </cell>
           <cell r="R4">
-            <v>59.95</v>
+            <v>10.658999999999999</v>
           </cell>
           <cell r="S4">
-            <v>55</v>
+            <v>11.866</v>
           </cell>
           <cell r="T4">
-            <v>55</v>
+            <v>8.8569999999999993</v>
           </cell>
           <cell r="U4">
-            <v>55</v>
+            <v>8.7210000000000001</v>
           </cell>
           <cell r="V4">
-            <v>55</v>
+            <v>9.1969999999999992</v>
           </cell>
           <cell r="W4">
-            <v>55</v>
+            <v>16.149999999999999</v>
           </cell>
           <cell r="X4">
-            <v>55</v>
+            <v>18.257999999999999</v>
           </cell>
           <cell r="Y4">
-            <v>55</v>
+            <v>18.257999999999999</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>24.97</v>
+            <v>50.01</v>
           </cell>
           <cell r="C2">
-            <v>24.97</v>
+            <v>45</v>
           </cell>
           <cell r="D2">
-            <v>24.97</v>
+            <v>49</v>
           </cell>
           <cell r="E2">
-            <v>25.97</v>
+            <v>37.31</v>
           </cell>
           <cell r="F2">
-            <v>25.97</v>
+            <v>37.31</v>
           </cell>
           <cell r="G2">
-            <v>24.97</v>
+            <v>48</v>
           </cell>
           <cell r="H2">
-            <v>29.75</v>
+            <v>50.01</v>
           </cell>
           <cell r="I2">
-            <v>29.75</v>
+            <v>50.01</v>
           </cell>
           <cell r="J2">
-            <v>24.97</v>
+            <v>48</v>
           </cell>
           <cell r="K2">
-            <v>29.75</v>
+            <v>46.88</v>
           </cell>
           <cell r="L2">
-            <v>24.97</v>
+            <v>47.88</v>
           </cell>
           <cell r="M2">
-            <v>24.97</v>
+            <v>47.88</v>
           </cell>
           <cell r="N2">
-            <v>24.97</v>
+            <v>47.88</v>
           </cell>
           <cell r="O2">
-            <v>25.01</v>
+            <v>47.88</v>
           </cell>
           <cell r="P2">
-            <v>24.97</v>
+            <v>47.88</v>
           </cell>
           <cell r="Q2">
-            <v>24.97</v>
+            <v>47.88</v>
           </cell>
           <cell r="R2">
-            <v>29.75</v>
+            <v>47.88</v>
           </cell>
           <cell r="S2">
-            <v>29.75</v>
+            <v>47.88</v>
           </cell>
           <cell r="T2">
-            <v>29.75</v>
+            <v>47.88</v>
           </cell>
           <cell r="U2">
-            <v>29.75</v>
+            <v>47.88</v>
           </cell>
           <cell r="V2">
-            <v>29.75</v>
+            <v>47.88</v>
           </cell>
           <cell r="W2">
-            <v>29.75</v>
+            <v>47.88</v>
           </cell>
           <cell r="X2">
-            <v>29.75</v>
+            <v>47.88</v>
           </cell>
           <cell r="Y2">
-            <v>29.75</v>
+            <v>47.88</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>28.36</v>
+            <v>47.67</v>
           </cell>
           <cell r="C3">
-            <v>28.36</v>
+            <v>32.44</v>
           </cell>
           <cell r="D3">
-            <v>27.234999999999999</v>
+            <v>32.44</v>
           </cell>
           <cell r="E3">
-            <v>28.86</v>
+            <v>32.44</v>
           </cell>
           <cell r="F3">
-            <v>28.86</v>
+            <v>32.44</v>
           </cell>
           <cell r="G3">
-            <v>28.36</v>
+            <v>32.44</v>
           </cell>
           <cell r="H3">
-            <v>37.325000000000003</v>
+            <v>32.44</v>
           </cell>
           <cell r="I3">
-            <v>30.75</v>
+            <v>32.44</v>
           </cell>
           <cell r="J3">
-            <v>32.480000000000004</v>
+            <v>47.67</v>
           </cell>
           <cell r="K3">
-            <v>34.879999999999995</v>
+            <v>36.44</v>
           </cell>
           <cell r="L3">
-            <v>32.489999999999995</v>
+            <v>37.44</v>
           </cell>
           <cell r="M3">
-            <v>32.489999999999995</v>
+            <v>37.44</v>
           </cell>
           <cell r="N3">
-            <v>32.480000000000004</v>
+            <v>37.44</v>
           </cell>
           <cell r="O3">
-            <v>32.5</v>
+            <v>37.44</v>
           </cell>
           <cell r="P3">
-            <v>32.480000000000004</v>
+            <v>37.44</v>
           </cell>
           <cell r="Q3">
-            <v>32.480000000000004</v>
+            <v>40.69</v>
           </cell>
           <cell r="R3">
-            <v>34.885000000000005</v>
+            <v>47.67</v>
           </cell>
           <cell r="S3">
-            <v>36.875</v>
+            <v>44.4</v>
           </cell>
           <cell r="T3">
-            <v>36.875</v>
+            <v>44.4</v>
           </cell>
           <cell r="U3">
-            <v>36.875</v>
+            <v>44.4</v>
           </cell>
           <cell r="V3">
-            <v>36.875</v>
+            <v>44.4</v>
           </cell>
           <cell r="W3">
-            <v>35.370000000000005</v>
+            <v>47.67</v>
           </cell>
           <cell r="X3">
-            <v>30.75</v>
+            <v>47.67</v>
           </cell>
           <cell r="Y3">
-            <v>30.75</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>31.75</v>
+            <v>55</v>
           </cell>
           <cell r="C4">
-            <v>31.75</v>
+            <v>56.99</v>
           </cell>
           <cell r="D4">
-            <v>29.5</v>
+            <v>56.99</v>
           </cell>
           <cell r="E4">
-            <v>31.75</v>
+            <v>55</v>
           </cell>
           <cell r="F4">
-            <v>31.75</v>
+            <v>55</v>
           </cell>
           <cell r="G4">
-            <v>31.75</v>
+            <v>55</v>
           </cell>
           <cell r="H4">
-            <v>44.9</v>
+            <v>56.99</v>
           </cell>
           <cell r="I4">
-            <v>31.75</v>
+            <v>56.99</v>
           </cell>
           <cell r="J4">
-            <v>39.99</v>
+            <v>55</v>
           </cell>
           <cell r="K4">
-            <v>40.01</v>
+            <v>55</v>
           </cell>
           <cell r="L4">
-            <v>40.01</v>
+            <v>55</v>
           </cell>
           <cell r="M4">
-            <v>40.01</v>
+            <v>55</v>
           </cell>
           <cell r="N4">
-            <v>39.99</v>
+            <v>59.95</v>
           </cell>
           <cell r="O4">
-            <v>39.99</v>
+            <v>59.95</v>
           </cell>
           <cell r="P4">
-            <v>39.99</v>
+            <v>59.95</v>
           </cell>
           <cell r="Q4">
-            <v>39.99</v>
+            <v>59.95</v>
           </cell>
           <cell r="R4">
-            <v>40.020000000000003</v>
+            <v>59.95</v>
           </cell>
           <cell r="S4">
-            <v>44</v>
+            <v>55</v>
           </cell>
           <cell r="T4">
-            <v>44</v>
+            <v>55</v>
           </cell>
           <cell r="U4">
-            <v>44</v>
+            <v>55</v>
           </cell>
           <cell r="V4">
-            <v>44</v>
+            <v>55</v>
           </cell>
           <cell r="W4">
-            <v>40.99</v>
+            <v>55</v>
           </cell>
           <cell r="X4">
-            <v>31.75</v>
+            <v>55</v>
           </cell>
           <cell r="Y4">
-            <v>31.75</v>
+            <v>55</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>37.270000000000003</v>
+            <v>24.97</v>
           </cell>
           <cell r="C2">
-            <v>34.01</v>
+            <v>24.97</v>
           </cell>
           <cell r="D2">
-            <v>32.57</v>
+            <v>24.97</v>
           </cell>
           <cell r="E2">
-            <v>31.98</v>
+            <v>25.97</v>
           </cell>
           <cell r="F2">
-            <v>32.130000000000003</v>
+            <v>25.97</v>
           </cell>
           <cell r="G2">
-            <v>36.369999999999997</v>
+            <v>24.97</v>
           </cell>
           <cell r="H2">
-            <v>37.909999999999997</v>
+            <v>29.75</v>
           </cell>
           <cell r="I2">
-            <v>37.909999999999997</v>
+            <v>29.75</v>
           </cell>
           <cell r="J2">
-            <v>39.840000000000003</v>
+            <v>24.97</v>
           </cell>
           <cell r="K2">
-            <v>39.94</v>
+            <v>29.75</v>
           </cell>
           <cell r="L2">
-            <v>39.840000000000003</v>
+            <v>24.97</v>
           </cell>
           <cell r="M2">
-            <v>40.01</v>
+            <v>24.97</v>
           </cell>
           <cell r="N2">
-            <v>39.44</v>
+            <v>24.97</v>
           </cell>
           <cell r="O2">
-            <v>39.19</v>
+            <v>25.01</v>
           </cell>
           <cell r="P2">
-            <v>38.369999999999997</v>
+            <v>24.97</v>
           </cell>
           <cell r="Q2">
-            <v>37.19</v>
+            <v>24.97</v>
           </cell>
           <cell r="R2">
-            <v>34.979999999999997</v>
+            <v>29.75</v>
           </cell>
           <cell r="S2">
-            <v>37.369999999999997</v>
+            <v>29.75</v>
           </cell>
           <cell r="T2">
-            <v>38.799999999999997</v>
+            <v>29.75</v>
           </cell>
           <cell r="U2">
-            <v>39.9</v>
+            <v>29.75</v>
           </cell>
           <cell r="V2">
-            <v>39.04</v>
+            <v>29.75</v>
           </cell>
           <cell r="W2">
-            <v>39.840000000000003</v>
+            <v>29.75</v>
           </cell>
           <cell r="X2">
-            <v>39.76</v>
+            <v>29.75</v>
           </cell>
           <cell r="Y2">
-            <v>38.14</v>
+            <v>29.75</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>39.68</v>
+            <v>28.36</v>
           </cell>
           <cell r="C3">
-            <v>35</v>
+            <v>28.36</v>
           </cell>
           <cell r="D3">
-            <v>38.200000000000003</v>
+            <v>27.234999999999999</v>
           </cell>
           <cell r="E3">
-            <v>36.9</v>
+            <v>28.86</v>
           </cell>
           <cell r="F3">
-            <v>37.61</v>
+            <v>28.86</v>
           </cell>
           <cell r="G3">
-            <v>38.200000000000003</v>
+            <v>28.36</v>
           </cell>
           <cell r="H3">
-            <v>37.21</v>
+            <v>37.325000000000003</v>
           </cell>
           <cell r="I3">
-            <v>40.18</v>
+            <v>30.75</v>
           </cell>
           <cell r="J3">
-            <v>42.84</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="K3">
-            <v>43.03</v>
+            <v>34.879999999999995</v>
           </cell>
           <cell r="L3">
-            <v>43.45</v>
+            <v>32.489999999999995</v>
           </cell>
           <cell r="M3">
-            <v>44.27</v>
+            <v>32.489999999999995</v>
           </cell>
           <cell r="N3">
-            <v>44.97</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="O3">
-            <v>46.14</v>
+            <v>32.5</v>
           </cell>
           <cell r="P3">
-            <v>44.39</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="Q3">
-            <v>43.01</v>
+            <v>32.480000000000004</v>
           </cell>
           <cell r="R3">
-            <v>42.86</v>
+            <v>34.885000000000005</v>
           </cell>
           <cell r="S3">
-            <v>43.73</v>
+            <v>36.875</v>
           </cell>
           <cell r="T3">
-            <v>43.97</v>
+            <v>36.875</v>
           </cell>
           <cell r="U3">
-            <v>44.9</v>
+            <v>36.875</v>
           </cell>
           <cell r="V3">
-            <v>45.45</v>
+            <v>36.875</v>
           </cell>
           <cell r="W3">
-            <v>46.15</v>
+            <v>35.370000000000005</v>
           </cell>
           <cell r="X3">
-            <v>44.97</v>
+            <v>30.75</v>
           </cell>
           <cell r="Y3">
-            <v>42.5</v>
+            <v>30.75</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>33.39</v>
+            <v>31.75</v>
           </cell>
           <cell r="C4">
-            <v>30.82</v>
+            <v>31.75</v>
           </cell>
           <cell r="D4">
-            <v>28.89</v>
+            <v>29.5</v>
           </cell>
           <cell r="E4">
-            <v>28.43</v>
+            <v>31.75</v>
           </cell>
           <cell r="F4">
-            <v>29.41</v>
+            <v>31.75</v>
           </cell>
           <cell r="G4">
-            <v>34.39</v>
+            <v>31.75</v>
           </cell>
           <cell r="H4">
-            <v>45.24</v>
+            <v>44.9</v>
           </cell>
           <cell r="I4">
-            <v>42.92</v>
+            <v>31.75</v>
           </cell>
           <cell r="J4">
-            <v>44.88</v>
+            <v>39.99</v>
           </cell>
           <cell r="K4">
-            <v>44.3</v>
+            <v>40.01</v>
           </cell>
           <cell r="L4">
-            <v>41.06</v>
+            <v>40.01</v>
           </cell>
           <cell r="M4">
-            <v>39.9</v>
+            <v>40.01</v>
           </cell>
           <cell r="N4">
-            <v>44.18</v>
+            <v>39.99</v>
           </cell>
           <cell r="O4">
-            <v>45.18</v>
+            <v>39.99</v>
           </cell>
           <cell r="P4">
-            <v>44.88</v>
+            <v>39.99</v>
           </cell>
           <cell r="Q4">
-            <v>44.35</v>
+            <v>39.99</v>
           </cell>
           <cell r="R4">
-            <v>44.35</v>
+            <v>40.020000000000003</v>
           </cell>
           <cell r="S4">
-            <v>44.88</v>
+            <v>44</v>
           </cell>
           <cell r="T4">
-            <v>46.18</v>
+            <v>44</v>
           </cell>
           <cell r="U4">
-            <v>47.88</v>
+            <v>44</v>
           </cell>
           <cell r="V4">
-            <v>51.18</v>
+            <v>44</v>
           </cell>
           <cell r="W4">
-            <v>55.69</v>
+            <v>40.99</v>
           </cell>
           <cell r="X4">
-            <v>50.77</v>
+            <v>31.75</v>
           </cell>
           <cell r="Y4">
-            <v>45</v>
+            <v>31.75</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>10.26</v>
+            <v>37.270000000000003</v>
           </cell>
           <cell r="C2">
-            <v>10.909500000000001</v>
+            <v>34.01</v>
           </cell>
           <cell r="D2">
-            <v>10.084849999999999</v>
+            <v>32.57</v>
           </cell>
           <cell r="E2">
-            <v>8.7750000000000004</v>
+            <v>31.98</v>
           </cell>
           <cell r="F2">
-            <v>7.9588000000000001</v>
+            <v>32.130000000000003</v>
           </cell>
           <cell r="G2">
-            <v>6.3310499999999994</v>
+            <v>36.369999999999997</v>
           </cell>
           <cell r="H2">
-            <v>5.706900000000001</v>
+            <v>37.909999999999997</v>
           </cell>
           <cell r="I2">
-            <v>4.8929999999999998</v>
+            <v>37.909999999999997</v>
           </cell>
           <cell r="J2">
-            <v>4.0228999999999999</v>
+            <v>39.840000000000003</v>
           </cell>
           <cell r="K2">
-            <v>4.4879999999999995</v>
+            <v>39.94</v>
           </cell>
           <cell r="L2">
-            <v>4.2223500000000005</v>
+            <v>39.840000000000003</v>
           </cell>
           <cell r="M2">
-            <v>4.0441500000000001</v>
+            <v>40.01</v>
           </cell>
           <cell r="N2">
-            <v>3.6749999999999998</v>
+            <v>39.44</v>
           </cell>
           <cell r="O2">
-            <v>4.1912000000000003</v>
+            <v>39.19</v>
           </cell>
           <cell r="P2">
-            <v>4.4894500000000006</v>
+            <v>38.369999999999997</v>
           </cell>
           <cell r="Q2">
-            <v>3.9945499999999998</v>
+            <v>37.19</v>
           </cell>
           <cell r="R2">
-            <v>2.9760000000000004</v>
+            <v>34.979999999999997</v>
           </cell>
           <cell r="S2">
-            <v>2.5608</v>
+            <v>37.369999999999997</v>
           </cell>
           <cell r="T2">
-            <v>3.0141000000000004</v>
+            <v>38.799999999999997</v>
           </cell>
           <cell r="U2">
-            <v>2.2196999999999996</v>
+            <v>39.9</v>
           </cell>
           <cell r="V2">
-            <v>3.6414</v>
+            <v>39.04</v>
           </cell>
           <cell r="W2">
-            <v>6.7825499999999996</v>
+            <v>39.840000000000003</v>
           </cell>
           <cell r="X2">
-            <v>7.5711999999999993</v>
+            <v>39.76</v>
           </cell>
           <cell r="Y2">
-            <v>6.9015499999999994</v>
+            <v>38.14</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>8</v>
+            <v>39.68</v>
           </cell>
           <cell r="C3">
-            <v>7.99</v>
+            <v>35</v>
           </cell>
           <cell r="D3">
-            <v>7.76</v>
+            <v>38.200000000000003</v>
           </cell>
           <cell r="E3">
-            <v>8</v>
+            <v>36.9</v>
           </cell>
           <cell r="F3">
-            <v>11</v>
+            <v>37.61</v>
           </cell>
           <cell r="G3">
-            <v>8.5299999999999994</v>
+            <v>38.200000000000003</v>
           </cell>
           <cell r="H3">
-            <v>6.44</v>
+            <v>37.21</v>
           </cell>
           <cell r="I3">
-            <v>4.71</v>
+            <v>40.18</v>
           </cell>
           <cell r="J3">
-            <v>4.67</v>
+            <v>42.84</v>
           </cell>
           <cell r="K3">
-            <v>5.66</v>
+            <v>43.03</v>
           </cell>
           <cell r="L3">
-            <v>4.79</v>
+            <v>43.45</v>
           </cell>
           <cell r="M3">
-            <v>5.08</v>
+            <v>44.27</v>
           </cell>
           <cell r="N3">
-            <v>4.07</v>
+            <v>44.97</v>
           </cell>
           <cell r="O3">
-            <v>4.4400000000000004</v>
+            <v>46.14</v>
           </cell>
           <cell r="P3">
-            <v>5.27</v>
+            <v>44.39</v>
           </cell>
           <cell r="Q3">
-            <v>4.63</v>
+            <v>43.01</v>
           </cell>
           <cell r="R3">
-            <v>4.41</v>
+            <v>42.86</v>
           </cell>
           <cell r="S3">
-            <v>3.49</v>
+            <v>43.73</v>
           </cell>
           <cell r="T3">
-            <v>4.4400000000000004</v>
+            <v>43.97</v>
           </cell>
           <cell r="U3">
-            <v>2.2999999999999998</v>
+            <v>44.9</v>
           </cell>
           <cell r="V3">
-            <v>4.97</v>
+            <v>45.45</v>
           </cell>
           <cell r="W3">
-            <v>8.57</v>
+            <v>46.15</v>
           </cell>
           <cell r="X3">
-            <v>8.25</v>
+            <v>44.97</v>
           </cell>
           <cell r="Y3">
-            <v>6.83</v>
+            <v>42.5</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>12.52</v>
+            <v>33.39</v>
           </cell>
           <cell r="C4">
-            <v>12.79</v>
+            <v>30.82</v>
           </cell>
           <cell r="D4">
-            <v>12.21</v>
+            <v>28.89</v>
           </cell>
           <cell r="E4">
-            <v>9.5500000000000007</v>
+            <v>28.43</v>
           </cell>
           <cell r="F4">
-            <v>4.76</v>
+            <v>29.41</v>
           </cell>
           <cell r="G4">
-            <v>4.26</v>
+            <v>34.39</v>
           </cell>
           <cell r="H4">
-            <v>4.75</v>
+            <v>45.24</v>
           </cell>
           <cell r="I4">
-            <v>4.6100000000000003</v>
+            <v>42.92</v>
           </cell>
           <cell r="J4">
-            <v>3.54</v>
+            <v>44.88</v>
           </cell>
           <cell r="K4">
-            <v>3.69</v>
+            <v>44.3</v>
           </cell>
           <cell r="L4">
-            <v>3.74</v>
+            <v>41.06</v>
           </cell>
           <cell r="M4">
-            <v>3.09</v>
+            <v>39.9</v>
           </cell>
           <cell r="N4">
-            <v>3.43</v>
+            <v>44.18</v>
           </cell>
           <cell r="O4">
-            <v>3.62</v>
+            <v>45.18</v>
           </cell>
           <cell r="P4">
-            <v>3.62</v>
+            <v>44.88</v>
           </cell>
           <cell r="Q4">
-            <v>3.28</v>
+            <v>44.35</v>
           </cell>
           <cell r="R4">
-            <v>1.79</v>
+            <v>44.35</v>
           </cell>
           <cell r="S4">
-            <v>1.79</v>
+            <v>44.88</v>
           </cell>
           <cell r="T4">
-            <v>1.47</v>
+            <v>46.18</v>
           </cell>
           <cell r="U4">
-            <v>2.23</v>
+            <v>47.88</v>
           </cell>
           <cell r="V4">
-            <v>2.17</v>
+            <v>51.18</v>
           </cell>
           <cell r="W4">
-            <v>4.5999999999999996</v>
+            <v>55.69</v>
           </cell>
           <cell r="X4">
-            <v>6.31</v>
+            <v>50.77</v>
           </cell>
           <cell r="Y4">
-            <v>7.4</v>
+            <v>45</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C2">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D2">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E2">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F2">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G2">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H2">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I2">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J2">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K2">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L2">
+            <v>49.74</v>
+          </cell>
+          <cell r="M2">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N2">
+            <v>51.436</v>
+          </cell>
+          <cell r="O2">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P2">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q2">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R2">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S2">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T2">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U2">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V2">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W2">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X2">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y2">
+            <v>50.256</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C3">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D3">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E3">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F3">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G3">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H3">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I3">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J3">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K3">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L3">
+            <v>49.74</v>
+          </cell>
+          <cell r="M3">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N3">
+            <v>51.436</v>
+          </cell>
+          <cell r="O3">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P3">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q3">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R3">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S3">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T3">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U3">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V3">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W3">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X3">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y3">
+            <v>50.256</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C4">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D4">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E4">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F4">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G4">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H4">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I4">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J4">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K4">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L4">
+            <v>49.74</v>
+          </cell>
+          <cell r="M4">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N4">
+            <v>51.436</v>
+          </cell>
+          <cell r="O4">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P4">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q4">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R4">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S4">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T4">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U4">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V4">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W4">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X4">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y4">
+            <v>50.256</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="B2">
+            <v>10.26</v>
+          </cell>
+          <cell r="C2">
+            <v>10.909500000000001</v>
+          </cell>
+          <cell r="D2">
+            <v>10.084849999999999</v>
+          </cell>
+          <cell r="E2">
+            <v>8.7750000000000004</v>
+          </cell>
+          <cell r="F2">
+            <v>7.9588000000000001</v>
+          </cell>
+          <cell r="G2">
+            <v>6.3310499999999994</v>
+          </cell>
+          <cell r="H2">
+            <v>5.706900000000001</v>
+          </cell>
+          <cell r="I2">
+            <v>4.8929999999999998</v>
+          </cell>
+          <cell r="J2">
+            <v>4.0228999999999999</v>
+          </cell>
+          <cell r="K2">
+            <v>4.4879999999999995</v>
+          </cell>
+          <cell r="L2">
+            <v>4.2223500000000005</v>
+          </cell>
+          <cell r="M2">
+            <v>4.0441500000000001</v>
+          </cell>
+          <cell r="N2">
+            <v>3.6749999999999998</v>
+          </cell>
+          <cell r="O2">
+            <v>4.1912000000000003</v>
+          </cell>
+          <cell r="P2">
+            <v>4.4894500000000006</v>
+          </cell>
+          <cell r="Q2">
+            <v>3.9945499999999998</v>
+          </cell>
+          <cell r="R2">
+            <v>2.9760000000000004</v>
+          </cell>
+          <cell r="S2">
+            <v>2.5608</v>
+          </cell>
+          <cell r="T2">
+            <v>3.0141000000000004</v>
+          </cell>
+          <cell r="U2">
+            <v>2.2196999999999996</v>
+          </cell>
+          <cell r="V2">
+            <v>3.6414</v>
+          </cell>
+          <cell r="W2">
+            <v>6.7825499999999996</v>
+          </cell>
+          <cell r="X2">
+            <v>7.5711999999999993</v>
+          </cell>
+          <cell r="Y2">
+            <v>6.9015499999999994</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>8</v>
+          </cell>
+          <cell r="C3">
+            <v>7.99</v>
+          </cell>
+          <cell r="D3">
+            <v>7.76</v>
+          </cell>
+          <cell r="E3">
+            <v>8</v>
+          </cell>
+          <cell r="F3">
+            <v>11</v>
+          </cell>
+          <cell r="G3">
+            <v>8.5299999999999994</v>
+          </cell>
+          <cell r="H3">
+            <v>6.44</v>
+          </cell>
+          <cell r="I3">
+            <v>4.71</v>
+          </cell>
+          <cell r="J3">
+            <v>4.67</v>
+          </cell>
+          <cell r="K3">
+            <v>5.66</v>
+          </cell>
+          <cell r="L3">
+            <v>4.79</v>
+          </cell>
+          <cell r="M3">
+            <v>5.08</v>
+          </cell>
+          <cell r="N3">
+            <v>4.07</v>
+          </cell>
+          <cell r="O3">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="P3">
+            <v>5.27</v>
+          </cell>
+          <cell r="Q3">
+            <v>4.63</v>
+          </cell>
+          <cell r="R3">
+            <v>4.41</v>
+          </cell>
+          <cell r="S3">
+            <v>3.49</v>
+          </cell>
+          <cell r="T3">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="U3">
+            <v>2.2999999999999998</v>
+          </cell>
+          <cell r="V3">
+            <v>4.97</v>
+          </cell>
+          <cell r="W3">
+            <v>8.57</v>
+          </cell>
+          <cell r="X3">
+            <v>8.25</v>
+          </cell>
+          <cell r="Y3">
+            <v>6.83</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>12.52</v>
+          </cell>
+          <cell r="C4">
+            <v>12.79</v>
+          </cell>
+          <cell r="D4">
+            <v>12.21</v>
+          </cell>
+          <cell r="E4">
+            <v>9.5500000000000007</v>
+          </cell>
+          <cell r="F4">
+            <v>4.76</v>
+          </cell>
+          <cell r="G4">
+            <v>4.26</v>
+          </cell>
+          <cell r="H4">
+            <v>4.75</v>
+          </cell>
+          <cell r="I4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="J4">
+            <v>3.54</v>
+          </cell>
+          <cell r="K4">
+            <v>3.69</v>
+          </cell>
+          <cell r="L4">
+            <v>3.74</v>
+          </cell>
+          <cell r="M4">
+            <v>3.09</v>
+          </cell>
+          <cell r="N4">
+            <v>3.43</v>
+          </cell>
+          <cell r="O4">
+            <v>3.62</v>
+          </cell>
+          <cell r="P4">
+            <v>3.62</v>
+          </cell>
+          <cell r="Q4">
+            <v>3.28</v>
+          </cell>
+          <cell r="R4">
+            <v>1.79</v>
+          </cell>
+          <cell r="S4">
+            <v>1.79</v>
+          </cell>
+          <cell r="T4">
+            <v>1.47</v>
+          </cell>
+          <cell r="U4">
+            <v>2.23</v>
+          </cell>
+          <cell r="V4">
+            <v>2.17</v>
+          </cell>
+          <cell r="W4">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="X4">
+            <v>6.31</v>
+          </cell>
+          <cell r="Y4">
+            <v>7.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="B2">
             <v>42.153333333333336</v>
           </cell>
           <cell r="C2">
@@ -1745,7 +2210,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8">
+      <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
             <v>24.09</v>
@@ -2237,10 +2702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,40 +2754,943 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>(1+[1]Main!$B$2)^($B$3-2020)</f>
+        <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <f>(1+[1]Main!$B$3)^($B$3-2020)</f>
+        <f>(1+[1]Main!$B$5)^($B$3-[1]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <f>(1+[1]Main!$B$4)^($B$3-2020)</f>
+        <f>(1+[1]Main!$B$6)^($B$3-[1]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <f>(1+[1]Main!$B$7)^($B$3-[1]Main!$B$1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <f>(1+[1]Main!$B$5)^($B$3-2020)</f>
+      <c r="B10" s="1">
+        <f>(1+[1]Main!$B$8)^($B$3-[1]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8569567B-FE76-4860-B3D6-E2994D38692A}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$9</f>
+        <v>42.153333333333336</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$9</f>
+        <v>42.486666666666672</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$9</f>
+        <v>42.486666666666672</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$9</f>
+        <v>51.303333333333335</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$9</f>
+        <v>44.726666666666667</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$9</f>
+        <v>53.636666666666677</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$9</f>
+        <v>52.483333333333327</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$9</f>
+        <v>40.266666666666673</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$9</f>
+        <v>40.466666666666669</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$9</f>
+        <v>59.133333333333333</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$9</f>
+        <v>40.833333333333336</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$9</f>
+        <v>40.833333333333336</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$9</f>
+        <v>59.5</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$9</f>
+        <v>59.5</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$9</f>
+        <v>44.09</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$9</f>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$9</f>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$9</f>
+        <v>41.06666666666667</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$9</f>
+        <v>40.866666666666667</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$9</f>
+        <v>44.09</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$9</f>
+        <v>40.6</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$9</f>
+        <v>45.860000000000007</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$9</f>
+        <v>37.6</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$9</f>
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$9</f>
+        <v>36.216666666666669</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$9</f>
+        <v>36.88333333333334</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$9</f>
+        <v>36.88333333333334</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$9</f>
+        <v>45.351666666666667</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$9</f>
+        <v>40.36333333333333</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$9</f>
+        <v>61.338333333333338</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$9</f>
+        <v>60.76166666666667</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$9</f>
+        <v>39.833333333333336</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$9</f>
+        <v>40.233333333333334</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$9</f>
+        <v>49.266666666666666</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$9</f>
+        <v>40.116666666666667</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$9</f>
+        <v>40.116666666666667</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$9</f>
+        <v>49.45</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$9</f>
+        <v>49.45</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$9</f>
+        <v>41.745000000000005</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$9</f>
+        <v>40.1</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$9</f>
+        <v>40.400000000000006</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$9</f>
+        <v>40.63333333333334</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$9</f>
+        <v>40.533333333333331</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$9</f>
+        <v>41.745000000000005</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$9</f>
+        <v>40</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$9</f>
+        <v>42.63</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$9</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$9</f>
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B4*Scenarios!$B$9</f>
+        <v>30.28</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C4*Scenarios!$B$9</f>
+        <v>31.28</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D4*Scenarios!$B$9</f>
+        <v>31.28</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E4*Scenarios!$B$9</f>
+        <v>39.4</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F4*Scenarios!$B$9</f>
+        <v>36</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G4*Scenarios!$B$9</f>
+        <v>69.040000000000006</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H4*Scenarios!$B$9</f>
+        <v>69.040000000000006</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I4*Scenarios!$B$9</f>
+        <v>39.4</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J4*Scenarios!$B$9</f>
+        <v>40</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K4*Scenarios!$B$9</f>
+        <v>39.4</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L4*Scenarios!$B$9</f>
+        <v>39.4</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M4*Scenarios!$B$9</f>
+        <v>39.4</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N4*Scenarios!$B$9</f>
+        <v>39.4</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O4*Scenarios!$B$9</f>
+        <v>39.4</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P4*Scenarios!$B$9</f>
+        <v>39.4</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q4*Scenarios!$B$9</f>
+        <v>39.4</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R4*Scenarios!$B$9</f>
+        <v>40</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S4*Scenarios!$B$9</f>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T4*Scenarios!$B$9</f>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U4*Scenarios!$B$9</f>
+        <v>39.4</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V4*Scenarios!$B$9</f>
+        <v>39.4</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W4*Scenarios!$B$9</f>
+        <v>39.4</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X4*Scenarios!$B$9</f>
+        <v>40</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y4*Scenarios!$B$9</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5116D5-BC70-4C53-B152-1396D3D4768A}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B2*Scenarios!$B$10</f>
+        <v>24.09</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C2*Scenarios!$B$10</f>
+        <v>24.09</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D2*Scenarios!$B$10</f>
+        <v>24.09</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E2*Scenarios!$B$10</f>
+        <v>24.09</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F2*Scenarios!$B$10</f>
+        <v>29.04</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G2*Scenarios!$B$10</f>
+        <v>29.03</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H2*Scenarios!$B$10</f>
+        <v>29.05</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I2*Scenarios!$B$10</f>
+        <v>29.04</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J2*Scenarios!$B$10</f>
+        <v>29.04</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K2*Scenarios!$B$10</f>
+        <v>29.05</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L2*Scenarios!$B$10</f>
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M2*Scenarios!$B$10</f>
+        <v>29.03</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N2*Scenarios!$B$10</f>
+        <v>29.03</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O2*Scenarios!$B$10</f>
+        <v>29.03</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P2*Scenarios!$B$10</f>
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q2*Scenarios!$B$10</f>
+        <v>29.01</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R2*Scenarios!$B$10</f>
+        <v>32</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S2*Scenarios!$B$10</f>
+        <v>29.01</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T2*Scenarios!$B$10</f>
+        <v>29.01</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U2*Scenarios!$B$10</f>
+        <v>29.01</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V2*Scenarios!$B$10</f>
+        <v>29.01</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W2*Scenarios!$B$10</f>
+        <v>29.01</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X2*Scenarios!$B$10</f>
+        <v>29.01</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y2*Scenarios!$B$10</f>
+        <v>27.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$10</f>
+        <v>27.917499999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$10</f>
+        <v>27.917499999999997</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$10</f>
+        <v>27.917499999999997</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$10</f>
+        <v>27.917499999999997</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$10</f>
+        <v>31.63</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$10</f>
+        <v>23.537500000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$10</f>
+        <v>29.28</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$10</f>
+        <v>26.9175</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$10</f>
+        <v>26.9175</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$10</f>
+        <v>30.950000000000003</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$10</f>
+        <v>33.162500000000001</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$10</f>
+        <v>30.935000000000002</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$10</f>
+        <v>29.265000000000001</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$10</f>
+        <v>29.265000000000001</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$10</f>
+        <v>31.4925</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$10</f>
+        <v>30.92</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$10</f>
+        <v>33.162500000000001</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$10</f>
+        <v>30.92</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$10</f>
+        <v>30.92</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$10</f>
+        <v>30.92</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$10</f>
+        <v>30.92</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$10</f>
+        <v>29.25</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$10</f>
+        <v>28.305</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$10</f>
+        <v>27.532499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$10</f>
+        <v>31.744999999999997</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$10</f>
+        <v>31.744999999999997</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$10</f>
+        <v>31.744999999999997</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$10</f>
+        <v>31.744999999999997</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$10</f>
+        <v>34.22</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$10</f>
+        <v>18.045000000000002</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$10</f>
+        <v>29.509999999999998</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$10</f>
+        <v>24.795000000000002</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$10</f>
+        <v>24.795000000000002</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$10</f>
+        <v>32.85</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$10</f>
+        <v>34.325000000000003</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$10</f>
+        <v>32.840000000000003</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$10</f>
+        <v>29.5</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$10</f>
+        <v>29.5</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$10</f>
+        <v>30.984999999999999</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$10</f>
+        <v>32.83</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$10</f>
+        <v>34.325000000000003</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$10</f>
+        <v>32.83</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$10</f>
+        <v>32.83</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$10</f>
+        <v>32.83</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$10</f>
+        <v>32.83</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$10</f>
+        <v>29.490000000000002</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$10</f>
+        <v>27.6</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$10</f>
+        <v>27.085000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2775,6 +4143,454 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BA0F2A-A97B-42BF-BD16-0283FFE6BEE7}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
+        <v>52.451999999999998</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
+        <v>48.941999999999993</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
+        <v>46.863</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
+        <v>43.947000000000003</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
+        <v>45.258000000000003</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
+        <v>48.894000000000005</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
+        <v>59.153999999999989</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
+        <v>61.908000000000001</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
+        <v>65.099999999999994</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
+        <v>64.60499999999999</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
+        <v>63.360000000000014</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
+        <v>63.050999999999995</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
+        <v>60.608999999999988</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
+        <v>59.753999999999991</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
+        <v>58.581000000000003</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
+        <v>58.697999999999993</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
+        <v>59.603999999999992</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
+        <v>62.55</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
+        <v>65.543999999999997</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
+        <v>66.048000000000002</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
+        <v>64.524000000000001</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
+        <v>60.471000000000004</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
+        <v>54.578999999999994</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
+        <v>51.227999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
+        <v>52.451999999999998</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
+        <v>48.941999999999993</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
+        <v>46.863</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
+        <v>43.947000000000003</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
+        <v>45.258000000000003</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
+        <v>48.894000000000005</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
+        <v>59.153999999999989</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
+        <v>61.908000000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
+        <v>65.099999999999994</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
+        <v>64.60499999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
+        <v>63.360000000000014</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
+        <v>63.050999999999995</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
+        <v>60.608999999999988</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
+        <v>59.753999999999991</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
+        <v>58.581000000000003</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
+        <v>58.697999999999993</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
+        <v>59.603999999999992</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
+        <v>62.55</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
+        <v>65.543999999999997</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
+        <v>66.048000000000002</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
+        <v>64.524000000000001</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
+        <v>60.471000000000004</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
+        <v>54.578999999999994</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
+        <v>51.227999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
+        <v>52.451999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
+        <v>48.941999999999993</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
+        <v>46.863</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
+        <v>43.947000000000003</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
+        <v>45.258000000000003</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
+        <v>48.894000000000005</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
+        <v>59.153999999999989</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
+        <v>61.908000000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
+        <v>65.099999999999994</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
+        <v>64.60499999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
+        <v>63.360000000000014</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
+        <v>63.050999999999995</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
+        <v>60.608999999999988</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
+        <v>59.753999999999991</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
+        <v>58.581000000000003</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
+        <v>58.697999999999993</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
+        <v>59.603999999999992</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
+        <v>62.55</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
+        <v>65.543999999999997</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
+        <v>66.048000000000002</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
+        <v>64.524000000000001</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
+        <v>60.471000000000004</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
+        <v>54.578999999999994</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
+        <v>51.227999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B4B357-A191-4ADB-99F3-51F24895E56A}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
@@ -2866,99 +4682,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!B2*Scenarios!$B$8</f>
         <v>25.342275000000001</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!C2*Scenarios!$B$8</f>
         <v>24.594854999999999</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!D2*Scenarios!$B$8</f>
         <v>27.759217499999998</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!E2*Scenarios!$B$8</f>
         <v>30.54975</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!F2*Scenarios!$B$8</f>
         <v>32.125005000000002</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!G2*Scenarios!$B$8</f>
         <v>29.361535</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!H2*Scenarios!$B$8</f>
         <v>27.199200000000001</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!I2*Scenarios!$B$8</f>
         <v>29.454137500000002</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!J2*Scenarios!$B$8</f>
         <v>25.75685</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!K2*Scenarios!$B$8</f>
         <v>23.352209999999999</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!L2*Scenarios!$B$8</f>
         <v>22.9788</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!M2*Scenarios!$B$8</f>
         <v>20.269462499999999</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!N2*Scenarios!$B$8</f>
         <v>22.549799999999994</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!O2*Scenarios!$B$8</f>
         <v>18.743400000000001</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!P2*Scenarios!$B$8</f>
         <v>19.593999999999998</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!Q2*Scenarios!$B$8</f>
         <v>16.172449999999998</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!R2*Scenarios!$B$8</f>
         <v>12.758287500000002</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!S2*Scenarios!$B$8</f>
         <v>14.871139999999999</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!T2*Scenarios!$B$8</f>
         <v>10.08586</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!U2*Scenarios!$B$8</f>
         <v>8.7737250000000007</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!V2*Scenarios!$B$8</f>
         <v>9.8389550000000003</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!W2*Scenarios!$B$8</f>
         <v>13.74175</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!X2*Scenarios!$B$8</f>
         <v>16.117327500000002</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!Y2*Scenarios!$B$8</f>
         <v>14.23521</v>
       </c>
     </row>
@@ -2967,99 +4783,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!B3*Scenarios!$B$8</f>
         <v>20.34</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!C3*Scenarios!$B$8</f>
         <v>21.39</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!D3*Scenarios!$B$8</f>
         <v>29.287499999999998</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!E3*Scenarios!$B$8</f>
         <v>33.202500000000001</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!F3*Scenarios!$B$8</f>
         <v>36.134999999999998</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!G3*Scenarios!$B$8</f>
         <v>35.917500000000004</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!H3*Scenarios!$B$8</f>
         <v>35.67</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!I3*Scenarios!$B$8</f>
         <v>37.387500000000003</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!J3*Scenarios!$B$8</f>
         <v>34.799999999999997</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!K3*Scenarios!$B$8</f>
         <v>30.075000000000003</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!L3*Scenarios!$B$8</f>
         <v>30.93</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!M3*Scenarios!$B$8</f>
         <v>25.297499999999999</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!N3*Scenarios!$B$8</f>
         <v>28.83</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!O3*Scenarios!$B$8</f>
         <v>21.509999999999998</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!P3*Scenarios!$B$8</f>
         <v>22.65</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!Q3*Scenarios!$B$8</f>
         <v>20.34</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!R3*Scenarios!$B$8</f>
         <v>13.642500000000002</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!S3*Scenarios!$B$8</f>
         <v>17.009999999999998</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!T3*Scenarios!$B$8</f>
         <v>11.115</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!U3*Scenarios!$B$8</f>
         <v>9.75</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!V3*Scenarios!$B$8</f>
         <v>10.8825</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!W3*Scenarios!$B$8</f>
         <v>12.78</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!X3*Scenarios!$B$8</f>
         <v>13.657500000000001</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!Y3*Scenarios!$B$8</f>
         <v>10.5</v>
       </c>
     </row>
@@ -3068,99 +4884,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!B4*Scenarios!$B$8</f>
         <v>27.930999999999997</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!C4*Scenarios!$B$8</f>
         <v>26.366999999999997</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!D4*Scenarios!$B$8</f>
         <v>27.948</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!E4*Scenarios!$B$8</f>
         <v>27.896999999999998</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!F4*Scenarios!$B$8</f>
         <v>28.764000000000003</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!G4*Scenarios!$B$8</f>
         <v>24.003999999999998</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!H4*Scenarios!$B$8</f>
         <v>20.994999999999997</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!I4*Scenarios!$B$8</f>
         <v>19.805</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!J4*Scenarios!$B$8</f>
         <v>17.764999999999997</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!K4*Scenarios!$B$8</f>
         <v>16.166999999999998</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!L4*Scenarios!$B$8</f>
         <v>13.26</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!M4*Scenarios!$B$8</f>
         <v>13.311</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!N4*Scenarios!$B$8</f>
         <v>14.535</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!O4*Scenarios!$B$8</f>
         <v>14.535</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!P4*Scenarios!$B$8</f>
         <v>16.149999999999999</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!Q4*Scenarios!$B$8</f>
         <v>12.664999999999999</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!R4*Scenarios!$B$8</f>
         <v>10.658999999999999</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!S4*Scenarios!$B$8</f>
         <v>11.866</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!T4*Scenarios!$B$8</f>
         <v>8.8569999999999993</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!U4*Scenarios!$B$8</f>
         <v>8.7210000000000001</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!V4*Scenarios!$B$8</f>
         <v>9.1969999999999992</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!W4*Scenarios!$B$8</f>
         <v>16.149999999999999</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!X4*Scenarios!$B$8</f>
         <v>18.257999999999999</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Winter'!Y4*Scenarios!$B$8</f>
         <v>18.257999999999999</v>
       </c>
     </row>
@@ -3247,7 +5063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E119D8D-D7FD-46DB-8300-FC3B5CEFAAC8}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
@@ -3339,99 +5155,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!B2*Scenarios!$B$9</f>
         <v>50.01</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!C2*Scenarios!$B$9</f>
         <v>45</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!D2*Scenarios!$B$9</f>
         <v>49</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!E2*Scenarios!$B$9</f>
         <v>37.31</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!F2*Scenarios!$B$9</f>
         <v>37.31</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!G2*Scenarios!$B$9</f>
         <v>48</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!H2*Scenarios!$B$9</f>
         <v>50.01</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!I2*Scenarios!$B$9</f>
         <v>50.01</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!J2*Scenarios!$B$9</f>
         <v>48</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!K2*Scenarios!$B$9</f>
         <v>46.88</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!L2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!M2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!N2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!O2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!P2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Q2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!R2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!S2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!T2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!U2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!V2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!W2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!X2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y2*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Y2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
     </row>
@@ -3440,99 +5256,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!B3*Scenarios!$B$9</f>
         <v>47.67</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!C3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!D3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!E3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!F3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!G3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!H3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!I3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!J3*Scenarios!$B$9</f>
         <v>47.67</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!K3*Scenarios!$B$9</f>
         <v>36.44</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!L3*Scenarios!$B$9</f>
         <v>37.44</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!M3*Scenarios!$B$9</f>
         <v>37.44</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!N3*Scenarios!$B$9</f>
         <v>37.44</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!O3*Scenarios!$B$9</f>
         <v>37.44</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!P3*Scenarios!$B$9</f>
         <v>37.44</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Q3*Scenarios!$B$9</f>
         <v>40.69</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!R3*Scenarios!$B$9</f>
         <v>47.67</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!S3*Scenarios!$B$9</f>
         <v>44.4</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!T3*Scenarios!$B$9</f>
         <v>44.4</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!U3*Scenarios!$B$9</f>
         <v>44.4</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!V3*Scenarios!$B$9</f>
         <v>44.4</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!W3*Scenarios!$B$9</f>
         <v>47.67</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!X3*Scenarios!$B$9</f>
         <v>47.67</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y3*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Y3*Scenarios!$B$9</f>
         <v>45</v>
       </c>
     </row>
@@ -3541,547 +5357,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!B4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!C4*Scenarios!$B$9</f>
         <v>56.99</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!D4*Scenarios!$B$9</f>
         <v>56.99</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!E4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!F4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!G4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!H4*Scenarios!$B$9</f>
         <v>56.99</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!I4*Scenarios!$B$9</f>
         <v>56.99</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!J4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!K4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!L4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!M4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!N4*Scenarios!$B$9</f>
         <v>59.95</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!O4*Scenarios!$B$9</f>
         <v>59.95</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!P4*Scenarios!$B$9</f>
         <v>59.95</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Q4*Scenarios!$B$9</f>
         <v>59.95</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!R4*Scenarios!$B$9</f>
         <v>59.95</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!S4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!T4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!U4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!V4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!W4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!X4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y4*Scenarios!$B$8</f>
+        <f>'[1]Tertiary Reserve Up, Winter'!Y4*Scenarios!$B$9</f>
         <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12992CFE-83F1-4576-AC00-4B8C55B0083F}">
-  <dimension ref="A1:Y6"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-      <c r="M1">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="O1">
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <v>14</v>
-      </c>
-      <c r="Q1">
-        <v>15</v>
-      </c>
-      <c r="R1">
-        <v>16</v>
-      </c>
-      <c r="S1">
-        <v>17</v>
-      </c>
-      <c r="T1">
-        <v>18</v>
-      </c>
-      <c r="U1">
-        <v>19</v>
-      </c>
-      <c r="V1">
-        <v>20</v>
-      </c>
-      <c r="W1">
-        <v>21</v>
-      </c>
-      <c r="X1">
-        <v>22</v>
-      </c>
-      <c r="Y1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B2*Scenarios!$B$9</f>
-        <v>24.97</v>
-      </c>
-      <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C2*Scenarios!$B$9</f>
-        <v>24.97</v>
-      </c>
-      <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$9</f>
-        <v>24.97</v>
-      </c>
-      <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$9</f>
-        <v>25.97</v>
-      </c>
-      <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$9</f>
-        <v>25.97</v>
-      </c>
-      <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$9</f>
-        <v>24.97</v>
-      </c>
-      <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H2*Scenarios!$B$9</f>
-        <v>29.75</v>
-      </c>
-      <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I2*Scenarios!$B$9</f>
-        <v>29.75</v>
-      </c>
-      <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J2*Scenarios!$B$9</f>
-        <v>24.97</v>
-      </c>
-      <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K2*Scenarios!$B$9</f>
-        <v>29.75</v>
-      </c>
-      <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L2*Scenarios!$B$9</f>
-        <v>24.97</v>
-      </c>
-      <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M2*Scenarios!$B$9</f>
-        <v>24.97</v>
-      </c>
-      <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N2*Scenarios!$B$9</f>
-        <v>24.97</v>
-      </c>
-      <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O2*Scenarios!$B$9</f>
-        <v>25.01</v>
-      </c>
-      <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P2*Scenarios!$B$9</f>
-        <v>24.97</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q2*Scenarios!$B$9</f>
-        <v>24.97</v>
-      </c>
-      <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R2*Scenarios!$B$9</f>
-        <v>29.75</v>
-      </c>
-      <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S2*Scenarios!$B$9</f>
-        <v>29.75</v>
-      </c>
-      <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T2*Scenarios!$B$9</f>
-        <v>29.75</v>
-      </c>
-      <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U2*Scenarios!$B$9</f>
-        <v>29.75</v>
-      </c>
-      <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V2*Scenarios!$B$9</f>
-        <v>29.75</v>
-      </c>
-      <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W2*Scenarios!$B$9</f>
-        <v>29.75</v>
-      </c>
-      <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X2*Scenarios!$B$9</f>
-        <v>29.75</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y2*Scenarios!$B$9</f>
-        <v>29.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$9</f>
-        <v>28.36</v>
-      </c>
-      <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$9</f>
-        <v>28.36</v>
-      </c>
-      <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$9</f>
-        <v>27.234999999999999</v>
-      </c>
-      <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$9</f>
-        <v>28.86</v>
-      </c>
-      <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$9</f>
-        <v>28.86</v>
-      </c>
-      <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$9</f>
-        <v>28.36</v>
-      </c>
-      <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$9</f>
-        <v>37.325000000000003</v>
-      </c>
-      <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$9</f>
-        <v>30.75</v>
-      </c>
-      <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$9</f>
-        <v>32.480000000000004</v>
-      </c>
-      <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$9</f>
-        <v>34.879999999999995</v>
-      </c>
-      <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L3*Scenarios!$B$9</f>
-        <v>32.489999999999995</v>
-      </c>
-      <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M3*Scenarios!$B$9</f>
-        <v>32.489999999999995</v>
-      </c>
-      <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N3*Scenarios!$B$9</f>
-        <v>32.480000000000004</v>
-      </c>
-      <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O3*Scenarios!$B$9</f>
-        <v>32.5</v>
-      </c>
-      <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P3*Scenarios!$B$9</f>
-        <v>32.480000000000004</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q3*Scenarios!$B$9</f>
-        <v>32.480000000000004</v>
-      </c>
-      <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R3*Scenarios!$B$9</f>
-        <v>34.885000000000005</v>
-      </c>
-      <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$9</f>
-        <v>36.875</v>
-      </c>
-      <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$9</f>
-        <v>36.875</v>
-      </c>
-      <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$9</f>
-        <v>36.875</v>
-      </c>
-      <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$9</f>
-        <v>36.875</v>
-      </c>
-      <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$9</f>
-        <v>35.370000000000005</v>
-      </c>
-      <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$9</f>
-        <v>30.75</v>
-      </c>
-      <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$9</f>
-        <v>30.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B4*Scenarios!$B$9</f>
-        <v>31.75</v>
-      </c>
-      <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$9</f>
-        <v>31.75</v>
-      </c>
-      <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D4*Scenarios!$B$9</f>
-        <v>29.5</v>
-      </c>
-      <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E4*Scenarios!$B$9</f>
-        <v>31.75</v>
-      </c>
-      <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F4*Scenarios!$B$9</f>
-        <v>31.75</v>
-      </c>
-      <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G4*Scenarios!$B$9</f>
-        <v>31.75</v>
-      </c>
-      <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H4*Scenarios!$B$9</f>
-        <v>44.9</v>
-      </c>
-      <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I4*Scenarios!$B$9</f>
-        <v>31.75</v>
-      </c>
-      <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J4*Scenarios!$B$9</f>
-        <v>39.99</v>
-      </c>
-      <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K4*Scenarios!$B$9</f>
-        <v>40.01</v>
-      </c>
-      <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L4*Scenarios!$B$9</f>
-        <v>40.01</v>
-      </c>
-      <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M4*Scenarios!$B$9</f>
-        <v>40.01</v>
-      </c>
-      <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N4*Scenarios!$B$9</f>
-        <v>39.99</v>
-      </c>
-      <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O4*Scenarios!$B$9</f>
-        <v>39.99</v>
-      </c>
-      <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P4*Scenarios!$B$9</f>
-        <v>39.99</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q4*Scenarios!$B$9</f>
-        <v>39.99</v>
-      </c>
-      <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R4*Scenarios!$B$9</f>
-        <v>40.020000000000003</v>
-      </c>
-      <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S4*Scenarios!$B$9</f>
-        <v>44</v>
-      </c>
-      <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T4*Scenarios!$B$9</f>
-        <v>44</v>
-      </c>
-      <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U4*Scenarios!$B$9</f>
-        <v>44</v>
-      </c>
-      <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V4*Scenarios!$B$9</f>
-        <v>44</v>
-      </c>
-      <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W4*Scenarios!$B$9</f>
-        <v>40.99</v>
-      </c>
-      <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X4*Scenarios!$B$9</f>
-        <v>31.75</v>
-      </c>
-      <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y4*Scenarios!$B$9</f>
-        <v>31.75</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4142,6 +5511,453 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12992CFE-83F1-4576-AC00-4B8C55B0083F}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!B2*Scenarios!$B$10</f>
+        <v>24.97</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!C2*Scenarios!$B$10</f>
+        <v>24.97</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$10</f>
+        <v>24.97</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$10</f>
+        <v>25.97</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$10</f>
+        <v>25.97</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$10</f>
+        <v>24.97</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!H2*Scenarios!$B$10</f>
+        <v>29.75</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!I2*Scenarios!$B$10</f>
+        <v>29.75</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!J2*Scenarios!$B$10</f>
+        <v>24.97</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!K2*Scenarios!$B$10</f>
+        <v>29.75</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!L2*Scenarios!$B$10</f>
+        <v>24.97</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!M2*Scenarios!$B$10</f>
+        <v>24.97</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!N2*Scenarios!$B$10</f>
+        <v>24.97</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!O2*Scenarios!$B$10</f>
+        <v>25.01</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!P2*Scenarios!$B$10</f>
+        <v>24.97</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!Q2*Scenarios!$B$10</f>
+        <v>24.97</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!R2*Scenarios!$B$10</f>
+        <v>29.75</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!S2*Scenarios!$B$10</f>
+        <v>29.75</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!T2*Scenarios!$B$10</f>
+        <v>29.75</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!U2*Scenarios!$B$10</f>
+        <v>29.75</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!V2*Scenarios!$B$10</f>
+        <v>29.75</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!W2*Scenarios!$B$10</f>
+        <v>29.75</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!X2*Scenarios!$B$10</f>
+        <v>29.75</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!Y2*Scenarios!$B$10</f>
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$10</f>
+        <v>28.36</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$10</f>
+        <v>28.36</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$10</f>
+        <v>27.234999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$10</f>
+        <v>28.86</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$10</f>
+        <v>28.86</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$10</f>
+        <v>28.36</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$10</f>
+        <v>37.325000000000003</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$10</f>
+        <v>30.75</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$10</f>
+        <v>32.480000000000004</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$10</f>
+        <v>34.879999999999995</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!L3*Scenarios!$B$10</f>
+        <v>32.489999999999995</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!M3*Scenarios!$B$10</f>
+        <v>32.489999999999995</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!N3*Scenarios!$B$10</f>
+        <v>32.480000000000004</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!O3*Scenarios!$B$10</f>
+        <v>32.5</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!P3*Scenarios!$B$10</f>
+        <v>32.480000000000004</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!Q3*Scenarios!$B$10</f>
+        <v>32.480000000000004</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!R3*Scenarios!$B$10</f>
+        <v>34.885000000000005</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$10</f>
+        <v>36.875</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$10</f>
+        <v>36.875</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$10</f>
+        <v>36.875</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$10</f>
+        <v>36.875</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$10</f>
+        <v>35.370000000000005</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$10</f>
+        <v>30.75</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$10</f>
+        <v>30.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!B4*Scenarios!$B$10</f>
+        <v>31.75</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$10</f>
+        <v>31.75</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!D4*Scenarios!$B$10</f>
+        <v>29.5</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!E4*Scenarios!$B$10</f>
+        <v>31.75</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!F4*Scenarios!$B$10</f>
+        <v>31.75</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!G4*Scenarios!$B$10</f>
+        <v>31.75</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!H4*Scenarios!$B$10</f>
+        <v>44.9</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!I4*Scenarios!$B$10</f>
+        <v>31.75</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!J4*Scenarios!$B$10</f>
+        <v>39.99</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!K4*Scenarios!$B$10</f>
+        <v>40.01</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!L4*Scenarios!$B$10</f>
+        <v>40.01</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!M4*Scenarios!$B$10</f>
+        <v>40.01</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!N4*Scenarios!$B$10</f>
+        <v>39.99</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!O4*Scenarios!$B$10</f>
+        <v>39.99</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!P4*Scenarios!$B$10</f>
+        <v>39.99</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!Q4*Scenarios!$B$10</f>
+        <v>39.99</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!R4*Scenarios!$B$10</f>
+        <v>40.020000000000003</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!S4*Scenarios!$B$10</f>
+        <v>44</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!T4*Scenarios!$B$10</f>
+        <v>44</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!U4*Scenarios!$B$10</f>
+        <v>44</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!V4*Scenarios!$B$10</f>
+        <v>44</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!W4*Scenarios!$B$10</f>
+        <v>40.99</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!X4*Scenarios!$B$10</f>
+        <v>31.75</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Tertiary Reserve Down, Winter'!Y4*Scenarios!$B$10</f>
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BAB509-4E8E-41C1-87FA-12D2A67962A8}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
@@ -4589,7 +6405,455 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B038B75F-C023-45BB-9C5E-2448F504CF83}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
+        <v>44.136000000000003</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
+        <v>39.931999999999995</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
+        <v>39.864000000000004</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
+        <v>38.923999999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
+        <v>39.660000000000004</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
+        <v>43.583999999999996</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
+        <v>48.144000000000005</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
+        <v>48.403999999999996</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
+        <v>51.024000000000001</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
+        <v>50.907999999999994</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
+        <v>49.74</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
+        <v>49.672000000000004</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
+        <v>51.436</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
+        <v>52.203999999999994</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
+        <v>51.05599999999999</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
+        <v>49.819999999999986</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
+        <v>48.875999999999998</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
+        <v>50.391999999999996</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
+        <v>51.579999999999991</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
+        <v>53.071999999999996</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
+        <v>54.268000000000001</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
+        <v>56.671999999999997</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
+        <v>54.199999999999996</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
+        <v>50.256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
+        <v>44.136000000000003</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
+        <v>39.931999999999995</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
+        <v>39.864000000000004</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
+        <v>38.923999999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
+        <v>39.660000000000004</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
+        <v>43.583999999999996</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
+        <v>48.144000000000005</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
+        <v>48.403999999999996</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
+        <v>51.024000000000001</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
+        <v>50.907999999999994</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
+        <v>49.74</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
+        <v>49.672000000000004</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
+        <v>51.436</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
+        <v>52.203999999999994</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
+        <v>51.05599999999999</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
+        <v>49.819999999999986</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
+        <v>48.875999999999998</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
+        <v>50.391999999999996</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
+        <v>51.579999999999991</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
+        <v>53.071999999999996</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
+        <v>54.268000000000001</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
+        <v>56.671999999999997</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
+        <v>54.199999999999996</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
+        <v>50.256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
+        <v>44.136000000000003</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
+        <v>39.931999999999995</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
+        <v>39.864000000000004</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
+        <v>38.923999999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
+        <v>39.660000000000004</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
+        <v>43.583999999999996</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
+        <v>48.144000000000005</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
+        <v>48.403999999999996</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
+        <v>51.024000000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
+        <v>50.907999999999994</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
+        <v>49.74</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
+        <v>49.672000000000004</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
+        <v>51.436</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
+        <v>52.203999999999994</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
+        <v>51.05599999999999</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
+        <v>49.819999999999986</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
+        <v>48.875999999999998</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
+        <v>50.391999999999996</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
+        <v>51.579999999999991</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
+        <v>53.071999999999996</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
+        <v>54.268000000000001</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
+        <v>56.671999999999997</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
+        <v>54.199999999999996</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
+        <v>50.256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474F59B3-3B5D-4137-B8CD-8B75EED2BAEA}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
@@ -4681,99 +6945,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!B2*Scenarios!$B$8</f>
         <v>10.26</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!C2*Scenarios!$B$8</f>
         <v>10.909500000000001</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!D2*Scenarios!$B$8</f>
         <v>10.084849999999999</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!E2*Scenarios!$B$8</f>
         <v>8.7750000000000004</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!F2*Scenarios!$B$8</f>
         <v>7.9588000000000001</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!G2*Scenarios!$B$8</f>
         <v>6.3310499999999994</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!H2*Scenarios!$B$8</f>
         <v>5.706900000000001</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!I2*Scenarios!$B$8</f>
         <v>4.8929999999999998</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!J2*Scenarios!$B$8</f>
         <v>4.0228999999999999</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!K2*Scenarios!$B$8</f>
         <v>4.4879999999999995</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!L2*Scenarios!$B$8</f>
         <v>4.2223500000000005</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!M2*Scenarios!$B$8</f>
         <v>4.0441500000000001</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!N2*Scenarios!$B$8</f>
         <v>3.6749999999999998</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!O2*Scenarios!$B$8</f>
         <v>4.1912000000000003</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!P2*Scenarios!$B$8</f>
         <v>4.4894500000000006</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!Q2*Scenarios!$B$8</f>
         <v>3.9945499999999998</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!R2*Scenarios!$B$8</f>
         <v>2.9760000000000004</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!S2*Scenarios!$B$8</f>
         <v>2.5608</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!T2*Scenarios!$B$8</f>
         <v>3.0141000000000004</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!U2*Scenarios!$B$8</f>
         <v>2.2196999999999996</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!V2*Scenarios!$B$8</f>
         <v>3.6414</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!W2*Scenarios!$B$8</f>
         <v>6.7825499999999996</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!X2*Scenarios!$B$8</f>
         <v>7.5711999999999993</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y2*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!Y2*Scenarios!$B$8</f>
         <v>6.9015499999999994</v>
       </c>
     </row>
@@ -4782,99 +7046,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!B3*Scenarios!$B$8</f>
         <v>8</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!C3*Scenarios!$B$8</f>
         <v>7.99</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!D3*Scenarios!$B$8</f>
         <v>7.76</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!E3*Scenarios!$B$8</f>
         <v>8</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!F3*Scenarios!$B$8</f>
         <v>11</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!G3*Scenarios!$B$8</f>
         <v>8.5299999999999994</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!H3*Scenarios!$B$8</f>
         <v>6.44</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!I3*Scenarios!$B$8</f>
         <v>4.71</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!J3*Scenarios!$B$8</f>
         <v>4.67</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!K3*Scenarios!$B$8</f>
         <v>5.66</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!L3*Scenarios!$B$8</f>
         <v>4.79</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!M3*Scenarios!$B$8</f>
         <v>5.08</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!N3*Scenarios!$B$8</f>
         <v>4.07</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!O3*Scenarios!$B$8</f>
         <v>4.4400000000000004</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!P3*Scenarios!$B$8</f>
         <v>5.27</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!Q3*Scenarios!$B$8</f>
         <v>4.63</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!R3*Scenarios!$B$8</f>
         <v>4.41</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!S3*Scenarios!$B$8</f>
         <v>3.49</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!T3*Scenarios!$B$8</f>
         <v>4.4400000000000004</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!U3*Scenarios!$B$8</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!V3*Scenarios!$B$8</f>
         <v>4.97</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!W3*Scenarios!$B$8</f>
         <v>8.57</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!X3*Scenarios!$B$8</f>
         <v>8.25</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y3*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!Y3*Scenarios!$B$8</f>
         <v>6.83</v>
       </c>
     </row>
@@ -4883,99 +7147,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!B4*Scenarios!$B$8</f>
         <v>12.52</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!C4*Scenarios!$B$8</f>
         <v>12.79</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!D4*Scenarios!$B$8</f>
         <v>12.21</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!E4*Scenarios!$B$8</f>
         <v>9.5500000000000007</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!F4*Scenarios!$B$8</f>
         <v>4.76</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!G4*Scenarios!$B$8</f>
         <v>4.26</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!H4*Scenarios!$B$8</f>
         <v>4.75</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!I4*Scenarios!$B$8</f>
         <v>4.6100000000000003</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!J4*Scenarios!$B$8</f>
         <v>3.54</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!K4*Scenarios!$B$8</f>
         <v>3.69</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!L4*Scenarios!$B$8</f>
         <v>3.74</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!M4*Scenarios!$B$8</f>
         <v>3.09</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!N4*Scenarios!$B$8</f>
         <v>3.43</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!O4*Scenarios!$B$8</f>
         <v>3.62</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!P4*Scenarios!$B$8</f>
         <v>3.62</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!Q4*Scenarios!$B$8</f>
         <v>3.28</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!R4*Scenarios!$B$8</f>
         <v>1.79</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!S4*Scenarios!$B$8</f>
         <v>1.79</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!T4*Scenarios!$B$8</f>
         <v>1.47</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!U4*Scenarios!$B$8</f>
         <v>2.23</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!V4*Scenarios!$B$8</f>
         <v>2.17</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!W4*Scenarios!$B$8</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!X4*Scenarios!$B$8</f>
         <v>6.31</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y4*Scenarios!$B$7</f>
+        <f>'[1]Secondary Reserve, Summer'!Y4*Scenarios!$B$8</f>
         <v>7.4</v>
       </c>
     </row>
@@ -5060,898 +7324,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8569567B-FE76-4860-B3D6-E2994D38692A}">
-  <dimension ref="A1:Y6"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-      <c r="M1">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="O1">
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <v>14</v>
-      </c>
-      <c r="Q1">
-        <v>15</v>
-      </c>
-      <c r="R1">
-        <v>16</v>
-      </c>
-      <c r="S1">
-        <v>17</v>
-      </c>
-      <c r="T1">
-        <v>18</v>
-      </c>
-      <c r="U1">
-        <v>19</v>
-      </c>
-      <c r="V1">
-        <v>20</v>
-      </c>
-      <c r="W1">
-        <v>21</v>
-      </c>
-      <c r="X1">
-        <v>22</v>
-      </c>
-      <c r="Y1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$8</f>
-        <v>42.153333333333336</v>
-      </c>
-      <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$8</f>
-        <v>42.486666666666672</v>
-      </c>
-      <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$8</f>
-        <v>42.486666666666672</v>
-      </c>
-      <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$8</f>
-        <v>51.303333333333335</v>
-      </c>
-      <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$8</f>
-        <v>44.726666666666667</v>
-      </c>
-      <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$8</f>
-        <v>53.636666666666677</v>
-      </c>
-      <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$8</f>
-        <v>52.483333333333327</v>
-      </c>
-      <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$8</f>
-        <v>40.266666666666673</v>
-      </c>
-      <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$8</f>
-        <v>40.466666666666669</v>
-      </c>
-      <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$8</f>
-        <v>59.133333333333333</v>
-      </c>
-      <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$8</f>
-        <v>40.833333333333336</v>
-      </c>
-      <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$8</f>
-        <v>40.833333333333336</v>
-      </c>
-      <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$8</f>
-        <v>59.5</v>
-      </c>
-      <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$8</f>
-        <v>59.5</v>
-      </c>
-      <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$8</f>
-        <v>44.09</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$8</f>
-        <v>40.800000000000004</v>
-      </c>
-      <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$8</f>
-        <v>40.800000000000004</v>
-      </c>
-      <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$8</f>
-        <v>41.06666666666667</v>
-      </c>
-      <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$8</f>
-        <v>40.866666666666667</v>
-      </c>
-      <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$8</f>
-        <v>44.09</v>
-      </c>
-      <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$8</f>
-        <v>40.6</v>
-      </c>
-      <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$8</f>
-        <v>45.860000000000007</v>
-      </c>
-      <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$8</f>
-        <v>37.6</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$8</f>
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$8</f>
-        <v>36.216666666666669</v>
-      </c>
-      <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$8</f>
-        <v>36.88333333333334</v>
-      </c>
-      <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$8</f>
-        <v>36.88333333333334</v>
-      </c>
-      <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$8</f>
-        <v>45.351666666666667</v>
-      </c>
-      <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$8</f>
-        <v>40.36333333333333</v>
-      </c>
-      <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$8</f>
-        <v>61.338333333333338</v>
-      </c>
-      <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$8</f>
-        <v>60.76166666666667</v>
-      </c>
-      <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$8</f>
-        <v>39.833333333333336</v>
-      </c>
-      <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$8</f>
-        <v>40.233333333333334</v>
-      </c>
-      <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$8</f>
-        <v>49.266666666666666</v>
-      </c>
-      <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$8</f>
-        <v>40.116666666666667</v>
-      </c>
-      <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$8</f>
-        <v>40.116666666666667</v>
-      </c>
-      <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$8</f>
-        <v>49.45</v>
-      </c>
-      <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$8</f>
-        <v>49.45</v>
-      </c>
-      <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$8</f>
-        <v>41.745000000000005</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$8</f>
-        <v>40.1</v>
-      </c>
-      <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$8</f>
-        <v>40.400000000000006</v>
-      </c>
-      <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$8</f>
-        <v>40.63333333333334</v>
-      </c>
-      <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$8</f>
-        <v>40.533333333333331</v>
-      </c>
-      <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$8</f>
-        <v>41.745000000000005</v>
-      </c>
-      <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$8</f>
-        <v>40</v>
-      </c>
-      <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$8</f>
-        <v>42.63</v>
-      </c>
-      <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$8</f>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$8</f>
-        <v>38.799999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B4*Scenarios!$B$8</f>
-        <v>30.28</v>
-      </c>
-      <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C4*Scenarios!$B$8</f>
-        <v>31.28</v>
-      </c>
-      <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D4*Scenarios!$B$8</f>
-        <v>31.28</v>
-      </c>
-      <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E4*Scenarios!$B$8</f>
-        <v>39.4</v>
-      </c>
-      <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F4*Scenarios!$B$8</f>
-        <v>36</v>
-      </c>
-      <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G4*Scenarios!$B$8</f>
-        <v>69.040000000000006</v>
-      </c>
-      <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H4*Scenarios!$B$8</f>
-        <v>69.040000000000006</v>
-      </c>
-      <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I4*Scenarios!$B$8</f>
-        <v>39.4</v>
-      </c>
-      <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J4*Scenarios!$B$8</f>
-        <v>40</v>
-      </c>
-      <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K4*Scenarios!$B$8</f>
-        <v>39.4</v>
-      </c>
-      <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L4*Scenarios!$B$8</f>
-        <v>39.4</v>
-      </c>
-      <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M4*Scenarios!$B$8</f>
-        <v>39.4</v>
-      </c>
-      <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N4*Scenarios!$B$8</f>
-        <v>39.4</v>
-      </c>
-      <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O4*Scenarios!$B$8</f>
-        <v>39.4</v>
-      </c>
-      <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P4*Scenarios!$B$8</f>
-        <v>39.4</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q4*Scenarios!$B$8</f>
-        <v>39.4</v>
-      </c>
-      <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R4*Scenarios!$B$8</f>
-        <v>40</v>
-      </c>
-      <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S4*Scenarios!$B$8</f>
-        <v>40.200000000000003</v>
-      </c>
-      <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T4*Scenarios!$B$8</f>
-        <v>40.200000000000003</v>
-      </c>
-      <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U4*Scenarios!$B$8</f>
-        <v>39.4</v>
-      </c>
-      <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V4*Scenarios!$B$8</f>
-        <v>39.4</v>
-      </c>
-      <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W4*Scenarios!$B$8</f>
-        <v>39.4</v>
-      </c>
-      <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X4*Scenarios!$B$8</f>
-        <v>40</v>
-      </c>
-      <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y4*Scenarios!$B$8</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5116D5-BC70-4C53-B152-1396D3D4768A}">
-  <dimension ref="A1:Y6"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>10</v>
-      </c>
-      <c r="M1">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="O1">
-        <v>13</v>
-      </c>
-      <c r="P1">
-        <v>14</v>
-      </c>
-      <c r="Q1">
-        <v>15</v>
-      </c>
-      <c r="R1">
-        <v>16</v>
-      </c>
-      <c r="S1">
-        <v>17</v>
-      </c>
-      <c r="T1">
-        <v>18</v>
-      </c>
-      <c r="U1">
-        <v>19</v>
-      </c>
-      <c r="V1">
-        <v>20</v>
-      </c>
-      <c r="W1">
-        <v>21</v>
-      </c>
-      <c r="X1">
-        <v>22</v>
-      </c>
-      <c r="Y1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B2*Scenarios!$B$9</f>
-        <v>24.09</v>
-      </c>
-      <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C2*Scenarios!$B$9</f>
-        <v>24.09</v>
-      </c>
-      <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D2*Scenarios!$B$9</f>
-        <v>24.09</v>
-      </c>
-      <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E2*Scenarios!$B$9</f>
-        <v>24.09</v>
-      </c>
-      <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F2*Scenarios!$B$9</f>
-        <v>29.04</v>
-      </c>
-      <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G2*Scenarios!$B$9</f>
-        <v>29.03</v>
-      </c>
-      <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H2*Scenarios!$B$9</f>
-        <v>29.05</v>
-      </c>
-      <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I2*Scenarios!$B$9</f>
-        <v>29.04</v>
-      </c>
-      <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J2*Scenarios!$B$9</f>
-        <v>29.04</v>
-      </c>
-      <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K2*Scenarios!$B$9</f>
-        <v>29.05</v>
-      </c>
-      <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L2*Scenarios!$B$9</f>
-        <v>32</v>
-      </c>
-      <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M2*Scenarios!$B$9</f>
-        <v>29.03</v>
-      </c>
-      <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N2*Scenarios!$B$9</f>
-        <v>29.03</v>
-      </c>
-      <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O2*Scenarios!$B$9</f>
-        <v>29.03</v>
-      </c>
-      <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P2*Scenarios!$B$9</f>
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q2*Scenarios!$B$9</f>
-        <v>29.01</v>
-      </c>
-      <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R2*Scenarios!$B$9</f>
-        <v>32</v>
-      </c>
-      <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S2*Scenarios!$B$9</f>
-        <v>29.01</v>
-      </c>
-      <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T2*Scenarios!$B$9</f>
-        <v>29.01</v>
-      </c>
-      <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U2*Scenarios!$B$9</f>
-        <v>29.01</v>
-      </c>
-      <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V2*Scenarios!$B$9</f>
-        <v>29.01</v>
-      </c>
-      <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W2*Scenarios!$B$9</f>
-        <v>29.01</v>
-      </c>
-      <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X2*Scenarios!$B$9</f>
-        <v>29.01</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y2*Scenarios!$B$9</f>
-        <v>27.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$9</f>
-        <v>27.917499999999997</v>
-      </c>
-      <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$9</f>
-        <v>27.917499999999997</v>
-      </c>
-      <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$9</f>
-        <v>27.917499999999997</v>
-      </c>
-      <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$9</f>
-        <v>27.917499999999997</v>
-      </c>
-      <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$9</f>
-        <v>31.63</v>
-      </c>
-      <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$9</f>
-        <v>23.537500000000001</v>
-      </c>
-      <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$9</f>
-        <v>29.28</v>
-      </c>
-      <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$9</f>
-        <v>26.9175</v>
-      </c>
-      <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$9</f>
-        <v>26.9175</v>
-      </c>
-      <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$9</f>
-        <v>30.950000000000003</v>
-      </c>
-      <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$9</f>
-        <v>33.162500000000001</v>
-      </c>
-      <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$9</f>
-        <v>30.935000000000002</v>
-      </c>
-      <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$9</f>
-        <v>29.265000000000001</v>
-      </c>
-      <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$9</f>
-        <v>29.265000000000001</v>
-      </c>
-      <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$9</f>
-        <v>31.4925</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$9</f>
-        <v>30.92</v>
-      </c>
-      <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$9</f>
-        <v>33.162500000000001</v>
-      </c>
-      <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$9</f>
-        <v>30.92</v>
-      </c>
-      <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$9</f>
-        <v>30.92</v>
-      </c>
-      <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$9</f>
-        <v>30.92</v>
-      </c>
-      <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$9</f>
-        <v>30.92</v>
-      </c>
-      <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$9</f>
-        <v>29.25</v>
-      </c>
-      <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$9</f>
-        <v>28.305</v>
-      </c>
-      <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$9</f>
-        <v>27.532499999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$9</f>
-        <v>31.744999999999997</v>
-      </c>
-      <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$9</f>
-        <v>31.744999999999997</v>
-      </c>
-      <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$9</f>
-        <v>31.744999999999997</v>
-      </c>
-      <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$9</f>
-        <v>31.744999999999997</v>
-      </c>
-      <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$9</f>
-        <v>34.22</v>
-      </c>
-      <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$9</f>
-        <v>18.045000000000002</v>
-      </c>
-      <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$9</f>
-        <v>29.509999999999998</v>
-      </c>
-      <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$9</f>
-        <v>24.795000000000002</v>
-      </c>
-      <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$9</f>
-        <v>24.795000000000002</v>
-      </c>
-      <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$9</f>
-        <v>32.85</v>
-      </c>
-      <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$9</f>
-        <v>34.325000000000003</v>
-      </c>
-      <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$9</f>
-        <v>32.840000000000003</v>
-      </c>
-      <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$9</f>
-        <v>29.5</v>
-      </c>
-      <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$9</f>
-        <v>29.5</v>
-      </c>
-      <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$9</f>
-        <v>30.984999999999999</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$9</f>
-        <v>32.83</v>
-      </c>
-      <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$9</f>
-        <v>34.325000000000003</v>
-      </c>
-      <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$9</f>
-        <v>32.83</v>
-      </c>
-      <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$9</f>
-        <v>32.83</v>
-      </c>
-      <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$9</f>
-        <v>32.83</v>
-      </c>
-      <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$9</f>
-        <v>32.83</v>
-      </c>
-      <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$9</f>
-        <v>29.490000000000002</v>
-      </c>
-      <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$9</f>
-        <v>27.6</v>
-      </c>
-      <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$9</f>
-        <v>27.085000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>